--- a/lin SD error fc by 1000 to 5 Hz.xlsx
+++ b/lin SD error fc by 1000 to 5 Hz.xlsx
@@ -87,7 +87,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -101,6 +101,13 @@
     </fill>
   </fills>
   <borders count="3">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -123,38 +130,31 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -1343,10 +1343,10 @@
     <col min="3" max="3" style="9" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="10" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="10" width="53.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="10" width="13.290714285714287" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="2" t="s">
@@ -1362,7 +1362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>0.007418254244084</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="5"/>
       <c r="B3" s="5" t="s">
         <v>6</v>
@@ -1400,7 +1400,7 @@
         <v>0.007731836924355</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>0.000004783334747541</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="5"/>
       <c r="B5" s="5" t="s">
         <v>6</v>
@@ -1438,7 +1438,7 @@
         <v>0.000004608475794681626</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="4" t="s">
         <v>8</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>0.0008560578993240648</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="5"/>
       <c r="B7" s="5" t="s">
         <v>6</v>
@@ -1476,7 +1476,7 @@
         <v>0.0008496949742448036</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>0.001497755835476</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="5"/>
       <c r="B9" s="5" t="s">
         <v>6</v>
@@ -1514,7 +1514,7 @@
         <v>0.001499364857786</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -1531,10 +1531,10 @@
         <v>0.03536138617441731</v>
       </c>
       <c r="F10" s="7">
-        <v>0.002086757243901011</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+        <v>0.002086757243901</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="5"/>
       <c r="B11" s="5" t="s">
         <v>6</v>
@@ -1552,7 +1552,7 @@
         <v>0.00210165956825667</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1572,7 +1572,7 @@
         <v>0.8637823938835753</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="5"/>
       <c r="B13" s="5" t="s">
         <v>6</v>
@@ -1590,7 +1590,7 @@
         <v>0.9199181090264485</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="4" t="s">
         <v>12</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>0.00000614783940457846</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="5"/>
       <c r="B15" s="5" t="s">
         <v>6</v>
@@ -1628,7 +1628,7 @@
         <v>0.000005853297519795221</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="4" t="s">
         <v>13</v>
       </c>
@@ -1648,7 +1648,7 @@
         <v>0.005301224711718024</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="5"/>
       <c r="B17" s="5" t="s">
         <v>6</v>
@@ -1666,7 +1666,7 @@
         <v>0.00481831799784727</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="4" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>0.01651323247840915</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="5"/>
       <c r="B19" s="5" t="s">
         <v>6</v>
@@ -1704,7 +1704,7 @@
         <v>0.01468856520369015</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="4" t="s">
         <v>15</v>
       </c>
@@ -1724,7 +1724,7 @@
         <v>0.0359828579231001</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="20.25">
       <c r="A21" s="5"/>
       <c r="B21" s="5" t="s">
         <v>6</v>
